--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,76 +58,82 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>support</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -604,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.417989417989418</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3372093023255814</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1812080536912752</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8048780487804879</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +812,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8018867924528302</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7872340425531915</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.76875</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6984126984126984</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6279069767441861</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1098,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.62</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1124,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6029411764705882</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L21">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M21">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5851063829787234</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5538461538461539</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5525423728813559</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L24">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>132</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5523012552301255</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="L25">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1254,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4943820224719101</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1298,59 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L28">
+        <v>42</v>
+      </c>
+      <c r="M28">
+        <v>42</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L29">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
